--- a/cleaned/invesco_mutual_fund_portfolio.xlsx
+++ b/cleaned/invesco_mutual_fund_portfolio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,65 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name of Instrument</t>
+          <t>name of instrument</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>isin</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Rating/Industry</t>
+          <t>coupon</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Yield</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Market Value</t>
+          <t>market value (mkt)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Net Asset Value (NAV)</t>
+          <t>% to net assets (nav)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>yield</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>yield to call (ytc)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>yield to maturity (ytm)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Scheme</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>AmcName</t>
         </is>
@@ -496,16 +511,12 @@
           <t>INE040A01034</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>7951434</t>
@@ -521,17 +532,20 @@
           <t>7.87</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -548,16 +562,12 @@
           <t>INE090A01021</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>10059466</t>
@@ -573,17 +583,20 @@
           <t>7.34</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -600,16 +613,12 @@
           <t>INE009A01021</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>IT - Software</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>6141812</t>
@@ -625,17 +634,20 @@
           <t>6.73</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -652,16 +664,12 @@
           <t>INE238A01034</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>5535787</t>
@@ -677,17 +685,20 @@
           <t>3.18</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -704,16 +715,12 @@
           <t>INE101A01026</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>Automobiles</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Automobiles</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>1728478</t>
@@ -729,17 +736,20 @@
           <t>3.01</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -756,16 +766,12 @@
           <t>INE018A01030</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Construction</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Construction</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>1304935</t>
@@ -781,17 +787,20 @@
           <t>2.71</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -808,16 +817,12 @@
           <t>INE733E01010</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>13353855</t>
@@ -833,17 +838,20 @@
           <t>2.52</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -860,16 +868,12 @@
           <t>INE437A01024</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Healthcare Services</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Healthcare Services</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>630597</t>
@@ -885,17 +889,20 @@
           <t>2.5</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -912,16 +919,12 @@
           <t>INE263A01024</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>Aerospace &amp; Defense</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Aerospace &amp; Defense</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>13773850</t>
@@ -937,17 +940,20 @@
           <t>2.35</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -964,16 +970,12 @@
           <t>INE020B01018</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>8727741</t>
@@ -989,17 +991,20 @@
           <t>2.29</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -1016,16 +1021,12 @@
           <t>INE758T01015</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Retailing</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>15646005</t>
@@ -1041,17 +1042,20 @@
           <t>2.01</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -1068,16 +1072,12 @@
           <t>INE591G01017</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>IT - Software</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>403697</t>
@@ -1093,17 +1093,20 @@
           <t>1.94</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -1120,16 +1123,12 @@
           <t>INE237A01028</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>1719093</t>
@@ -1145,17 +1144,20 @@
           <t>1.9</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -1172,16 +1174,12 @@
           <t>IN9397D01014</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>Telecom - Services</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Telecom - Services</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>2628845</t>
@@ -1197,17 +1195,20 @@
           <t>1.84</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -1224,16 +1225,12 @@
           <t>INE214T01019</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>IT - Software</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>463032</t>
@@ -1249,17 +1246,20 @@
           <t>1.6</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -1276,16 +1276,12 @@
           <t>INE171A01029</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>14499174</t>
@@ -1301,17 +1297,20 @@
           <t>1.58</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -1328,16 +1327,12 @@
           <t>INE634S01028</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>1103081</t>
@@ -1353,17 +1348,20 @@
           <t>1.56</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -1380,16 +1378,12 @@
           <t>INE216A01030</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>Food Products</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Food Products</t>
-        </is>
-      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>522848</t>
@@ -1405,17 +1399,20 @@
           <t>1.56</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -1432,16 +1429,12 @@
           <t>INE121A01024</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>1909693</t>
@@ -1457,17 +1450,20 @@
           <t>1.43</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -1484,16 +1480,12 @@
           <t>INE765G01017</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>Insurance</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>1275814</t>
@@ -1509,17 +1501,20 @@
           <t>1.38</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -1536,16 +1531,12 @@
           <t>INE094A01015</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>Petroleum Products</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Petroleum Products</t>
-        </is>
-      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>6392739</t>
@@ -1561,17 +1552,20 @@
           <t>1.33</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -1588,16 +1582,12 @@
           <t>INE811K01011</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>Realty</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Realty</t>
-        </is>
-      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>1674379</t>
@@ -1613,17 +1603,20 @@
           <t>1.33</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -1640,16 +1633,12 @@
           <t>INE192R01011</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Retailing</t>
-        </is>
-      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>618363</t>
@@ -1665,17 +1654,20 @@
           <t>1.32</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -1692,16 +1684,12 @@
           <t>INE388Y01029</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Retailing</t>
-        </is>
-      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>13393363</t>
@@ -1717,17 +1705,20 @@
           <t>1.32</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -1744,16 +1735,12 @@
           <t>INE935A01035</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>1510869</t>
@@ -1769,17 +1756,20 @@
           <t>1.28</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -1796,16 +1786,12 @@
           <t>INE326A01037</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>1043775</t>
@@ -1821,17 +1807,20 @@
           <t>1.26</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -1848,16 +1837,12 @@
           <t>INE494B01023</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>Automobiles</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Automobiles</t>
-        </is>
-      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>871427</t>
@@ -1873,17 +1858,20 @@
           <t>1.25</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -1900,16 +1888,12 @@
           <t>INE010601016</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Retailing</t>
-        </is>
-      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>1577379</t>
@@ -1925,17 +1909,20 @@
           <t>1.24</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -1952,16 +1939,12 @@
           <t>INE031B01049</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>751371</t>
@@ -1977,17 +1960,20 @@
           <t>1.18</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -2004,16 +1990,12 @@
           <t>INE361B01024</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>348018</t>
@@ -2029,17 +2011,20 @@
           <t>1.13</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -2056,16 +2041,12 @@
           <t>INE079A01024</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>Cement &amp; Cement Products</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Cement &amp; Cement Products</t>
-        </is>
-      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>3625883</t>
@@ -2081,17 +2062,20 @@
           <t>1.08</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -2108,16 +2092,12 @@
           <t>INE671A01010</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>Industrial Manufacturing</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Industrial Manufacturing</t>
-        </is>
-      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>44932</t>
@@ -2133,17 +2113,20 @@
           <t>1.06</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -2160,16 +2143,12 @@
           <t>INE810G01011</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>Industrial Products</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Industrial Products</t>
-        </is>
-      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>2354621</t>
@@ -2185,17 +2164,20 @@
           <t>1.05</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -2212,16 +2194,12 @@
           <t>INE745G01035</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>Capital Markets</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Capital Markets</t>
-        </is>
-      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>312010</t>
@@ -2237,17 +2215,20 @@
           <t>1.04</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -2264,16 +2245,12 @@
           <t>INE03QK01018</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>1626625</t>
@@ -2289,17 +2266,20 @@
           <t>1</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -2316,16 +2296,12 @@
           <t>INE980O01024</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>Industrial Manufacturing</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Industrial Manufacturing</t>
-        </is>
-      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>1569105</t>
@@ -2341,17 +2317,20 @@
           <t>0.98</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -2368,16 +2347,12 @@
           <t>INE191A01027</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>1187580</t>
@@ -2393,17 +2368,20 @@
           <t>0.98</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -2420,16 +2398,12 @@
           <t>INE775A01035</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>Auto Components</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Auto Components</t>
-        </is>
-      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>11707326</t>
@@ -2445,17 +2419,20 @@
           <t>0.96</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -2472,16 +2449,12 @@
           <t>INE055A01016</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>Paper, Forest &amp; Jute Products</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Paper, Forest &amp; Jute Products</t>
-        </is>
-      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>754488</t>
@@ -2497,17 +2470,20 @@
           <t>0.95</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -2524,16 +2500,12 @@
           <t>INE872J01023</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>Leisure Services</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Leisure Services</t>
-        </is>
-      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>9417175</t>
@@ -2549,17 +2521,20 @@
           <t>0.93</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -2576,16 +2551,12 @@
           <t>INE154A01025</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>Diversified FMCG</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Diversified FMCG</t>
-        </is>
-      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>3343540</t>
@@ -2601,17 +2572,20 @@
           <t>0.87</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -2628,16 +2602,12 @@
           <t>INE603J01030</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>Fertilizers &amp; Agrochemicals</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Fertilizers &amp; Agrochemicals</t>
-        </is>
-      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>378610</t>
@@ -2653,17 +2623,20 @@
           <t>0.77</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -2680,16 +2653,12 @@
           <t>INE040H01021</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>Electrical Equipment</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Electrical Equipment</t>
-        </is>
-      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>22521863</t>
@@ -2705,17 +2674,20 @@
           <t>0.76</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -2732,16 +2704,12 @@
           <t>INE303R01014</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>Consumer Durables</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Consumer Durables</t>
-        </is>
-      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>2559689</t>
@@ -2757,17 +2725,20 @@
           <t>0.75</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -2784,16 +2755,12 @@
           <t>INE118H01025</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>Capital Markets</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Capital Markets</t>
-        </is>
-      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>240911</t>
@@ -2809,17 +2776,20 @@
           <t>0.74</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -2836,16 +2806,12 @@
           <t>INE123W01016</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>Insurance</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>856436</t>
@@ -2861,17 +2827,20 @@
           <t>0.74</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -2888,16 +2857,12 @@
           <t>INE716A01013</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>Consumer Durables</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Consumer Durables</t>
-        </is>
-      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>1051108</t>
@@ -2913,17 +2878,20 @@
           <t>0.7</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -2940,16 +2908,12 @@
           <t>INE299U01018</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>Consumer Durables</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Consumer Durables</t>
-        </is>
-      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>3358145</t>
@@ -2965,17 +2929,20 @@
           <t>0.67</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -2992,16 +2959,12 @@
           <t>INE736A01011</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>Capital Markets</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Capital Markets</t>
-        </is>
-      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>858048</t>
@@ -3017,17 +2980,20 @@
           <t>0.65</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -3044,16 +3010,12 @@
           <t>INE00LO01017</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>Auto Components</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Auto Components</t>
-        </is>
-      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>266734</t>
@@ -3069,17 +3031,20 @@
           <t>0.65</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -3096,16 +3061,12 @@
           <t>INE878B01027</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>Industrial Products</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Industrial Products</t>
-        </is>
-      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>264649</t>
@@ -3121,17 +3082,20 @@
           <t>0.62</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -3148,16 +3112,12 @@
           <t>INE572A01036</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>598684</t>
@@ -3173,17 +3133,20 @@
           <t>0.62</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -3200,16 +3163,12 @@
           <t>INE063P01018</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>15789404</t>
@@ -3225,17 +3184,20 @@
           <t>0.61</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -3252,16 +3214,12 @@
           <t>INE474Q01031</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>Healthcare Services</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Healthcare Services</t>
-        </is>
-      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>1000000</t>
@@ -3277,17 +3235,20 @@
           <t>0.61</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -3304,16 +3265,12 @@
           <t>INE797F01020</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>Leisure Services</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Leisure Services</t>
-        </is>
-      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>1464024</t>
@@ -3329,17 +3286,20 @@
           <t>0.6</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -3356,16 +3316,12 @@
           <t>INE245A01021</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>2741033</t>
@@ -3381,17 +3337,20 @@
           <t>0.58</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -3408,16 +3367,12 @@
           <t>INE665J01013</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Retailing</t>
-        </is>
-      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>306878</t>
@@ -3433,17 +3388,20 @@
           <t>0.57</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -3460,16 +3418,12 @@
           <t>INE288B01029</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Chemicals &amp; Petrochemicals</t>
-        </is>
-      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>417600</t>
@@ -3485,17 +3439,20 @@
           <t>0.57</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -3512,16 +3469,12 @@
           <t>INE226A01021</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>Consumer Durables</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Consumer Durables</t>
-        </is>
-      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>735535</t>
@@ -3537,17 +3490,20 @@
           <t>0.54</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -3564,16 +3520,12 @@
           <t>INE883F01010</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>1992085</t>
@@ -3589,17 +3541,20 @@
           <t>0.46</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -3616,16 +3571,12 @@
           <t>INE804L01022</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Retailing</t>
-        </is>
-      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>1094617</t>
@@ -3641,17 +3592,20 @@
           <t>0.46</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -3668,16 +3622,12 @@
           <t>INE0UIZ01018</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
         <is>
           <t>Transport Services</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Transport Services</t>
-        </is>
-      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>1826550</t>
@@ -3693,17 +3643,20 @@
           <t>0.41</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -3720,16 +3673,12 @@
           <t>INE269A01021</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>IT - Software</t>
-        </is>
-      </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>1279743</t>
@@ -3745,17 +3694,20 @@
           <t>0.39</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -3772,16 +3724,12 @@
           <t>INE148O01028</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
         <is>
           <t>Transport Services</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Transport Services</t>
-        </is>
-      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>2100534</t>
@@ -3797,17 +3745,20 @@
           <t>0.39</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -3824,16 +3775,12 @@
           <t>INE049B01025</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>466063</t>
@@ -3849,17 +3796,20 @@
           <t>0.38</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -3876,16 +3826,12 @@
           <t>INE021A01026</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
         <is>
           <t>Consumer Durables</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Consumer Durables</t>
-        </is>
-      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>282626</t>
@@ -3901,17 +3847,20 @@
           <t>0.38</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -3928,16 +3877,12 @@
           <t>INE068V01023</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>221767</t>
@@ -3953,17 +3898,20 @@
           <t>0.2</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -3980,16 +3928,12 @@
           <t>INE663F01024</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Retailing</t>
-        </is>
-      </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>32469</t>
@@ -4005,17 +3949,20 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
@@ -4032,16 +3979,12 @@
           <t>INE379A01028</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
         <is>
           <t>Leisure Services</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Leisure Services</t>
-        </is>
-      </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>334354</t>
@@ -4057,17 +4000,20 @@
           <t>0.03</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Contra</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>Invesco Mutual Fund</t>
         </is>
